--- a/data/trans_orig/P21D3_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>63440</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50045</v>
+        <v>48363</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81206</v>
+        <v>80499</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3212241193901606</v>
+        <v>0.3212241193901607</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.253398829067998</v>
+        <v>0.2448827619166785</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4111784999961555</v>
+        <v>0.4076016730591129</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -762,19 +762,19 @@
         <v>43628</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31884</v>
+        <v>32579</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57280</v>
+        <v>57072</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1617476636235186</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1182072419105741</v>
+        <v>0.1207857398337696</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.212361744897101</v>
+        <v>0.2115917297348439</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -783,19 +783,19 @@
         <v>107068</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87483</v>
+        <v>87525</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>130301</v>
+        <v>127248</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2291585070681538</v>
+        <v>0.2291585070681539</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1872403050369473</v>
+        <v>0.187331320393195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2788849046175241</v>
+        <v>0.2723494368619622</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>133308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>115774</v>
+        <v>116216</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146646</v>
+        <v>149051</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.674995586682025</v>
+        <v>0.6749955866820251</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.586211246344951</v>
+        <v>0.5884494621799827</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7425298724513283</v>
+        <v>0.7547090569048805</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>320</v>
@@ -833,19 +833,19 @@
         <v>220939</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>207790</v>
+        <v>207027</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>232957</v>
+        <v>232748</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8191209353497785</v>
+        <v>0.8191209353497784</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7703717371116362</v>
+        <v>0.7675423630575711</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8636764249868308</v>
+        <v>0.8629013289691225</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>459</v>
@@ -854,19 +854,19 @@
         <v>354247</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>329969</v>
+        <v>334456</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>373813</v>
+        <v>374011</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7581990188904484</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7062362397743316</v>
+        <v>0.7158387982329293</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8000764621364492</v>
+        <v>0.8004987465387108</v>
       </c>
     </row>
     <row r="6">
@@ -896,19 +896,19 @@
         <v>4599</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2040</v>
+        <v>2142</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9063</v>
+        <v>8678</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01705005758538154</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007562129261441685</v>
+        <v>0.007942781445257875</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03360174944549916</v>
+        <v>0.03217344545581435</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -917,19 +917,19 @@
         <v>4599</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2132</v>
+        <v>1936</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8916</v>
+        <v>9040</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.009842982678399665</v>
+        <v>0.009842982678399666</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00456231657911902</v>
+        <v>0.004144671592183683</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01908351518449654</v>
+        <v>0.01934912141831164</v>
       </c>
     </row>
     <row r="7">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3738</v>
+        <v>4194</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0037802939278144</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01892752038109264</v>
+        <v>0.02123656661256837</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2811</v>
+        <v>2859</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002081343441321445</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01042290215020207</v>
+        <v>0.01059799681642006</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4793</v>
+        <v>5403</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00279949136299804</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01025938064766388</v>
+        <v>0.01156443831843313</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>146360</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>124557</v>
+        <v>122868</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>172084</v>
+        <v>168483</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3694867335785403</v>
+        <v>0.3694867335785404</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3144439256877009</v>
+        <v>0.3101806632723234</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.43442555945162</v>
+        <v>0.4253344775951078</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>110</v>
@@ -1113,19 +1113,19 @@
         <v>92806</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>77168</v>
+        <v>76397</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>109865</v>
+        <v>110131</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1936083851584343</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1609863209687074</v>
+        <v>0.1593765308409248</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2291979493353699</v>
+        <v>0.2297517199550182</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>218</v>
@@ -1134,19 +1134,19 @@
         <v>239166</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>209324</v>
+        <v>207774</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>268956</v>
+        <v>268514</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2731873179686236</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2391005082222996</v>
+        <v>0.2373293292752429</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3072155445704116</v>
+        <v>0.3067104623381108</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>247863</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>222652</v>
+        <v>225652</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>269655</v>
+        <v>270982</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6257309430427354</v>
+        <v>0.6257309430427355</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5620840641104308</v>
+        <v>0.5696596968631643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6807434576144525</v>
+        <v>0.6840946206282016</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>574</v>
@@ -1184,19 +1184,19 @@
         <v>382765</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>365123</v>
+        <v>364620</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>398736</v>
+        <v>398391</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7985142295982269</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7617084406326277</v>
+        <v>0.7606598913504093</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8318316699139087</v>
+        <v>0.8311123716377793</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>830</v>
@@ -1205,19 +1205,19 @@
         <v>630629</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>599703</v>
+        <v>600235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>660988</v>
+        <v>661480</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7203357063460079</v>
+        <v>0.720335706346008</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6850105324628943</v>
+        <v>0.6856184433928325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7550140749443918</v>
+        <v>0.7555757123960209</v>
       </c>
     </row>
     <row r="11">
@@ -1237,16 +1237,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6588</v>
+        <v>6351</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.004782323378724144</v>
+        <v>0.004782323378724145</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01663031745819588</v>
+        <v>0.0160322397530893</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1255,19 +1255,19 @@
         <v>3027</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6520</v>
+        <v>6406</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006314524307653931</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002293631967833259</v>
+        <v>0.002278975851613344</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01360257950903997</v>
+        <v>0.01336381609305002</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1276,19 +1276,19 @@
         <v>4921</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2118</v>
+        <v>1960</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10661</v>
+        <v>9680</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005621255830491712</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002418881596630262</v>
+        <v>0.002238651194644658</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01217736308569042</v>
+        <v>0.01105688709050767</v>
       </c>
     </row>
     <row r="12">
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4012</v>
+        <v>3783</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.00156286093568479</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.008370715210847847</v>
+        <v>0.007892889501130859</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3318</v>
+        <v>4364</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0008557198548767354</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.003790307250317044</v>
+        <v>0.004984478434655048</v>
       </c>
     </row>
     <row r="13">
@@ -1443,19 +1443,19 @@
         <v>114414</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95093</v>
+        <v>93510</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>137563</v>
+        <v>134721</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2804275462324106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2330716412198884</v>
+        <v>0.2291914137305516</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3371645482094454</v>
+        <v>0.3301994957400618</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>111</v>
@@ -1464,19 +1464,19 @@
         <v>88065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71760</v>
+        <v>73639</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>103402</v>
+        <v>102987</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2024465558563485</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1649654996290272</v>
+        <v>0.1692845992635508</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2377042305935713</v>
+        <v>0.2367508290476992</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>209</v>
@@ -1485,19 +1485,19 @@
         <v>202479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>177042</v>
+        <v>177028</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>230256</v>
+        <v>228909</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2401881529917517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2100137354431143</v>
+        <v>0.2099971629040686</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2731380850429294</v>
+        <v>0.2715403141657267</v>
       </c>
     </row>
     <row r="15">
@@ -1514,19 +1514,19 @@
         <v>290874</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>267182</v>
+        <v>270478</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>309821</v>
+        <v>311313</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7129270311294392</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6548567752134467</v>
+        <v>0.662937108027561</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7593650869930225</v>
+        <v>0.7630221434977957</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>498</v>
@@ -1535,19 +1535,19 @@
         <v>342180</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>326075</v>
+        <v>326781</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>358269</v>
+        <v>356843</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.7866172309366288</v>
+        <v>0.7866172309366289</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7495946692802633</v>
+        <v>0.7512178093932128</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8236036303234199</v>
+        <v>0.8203251310427672</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>782</v>
@@ -1556,19 +1556,19 @@
         <v>633054</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>605140</v>
+        <v>605581</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>658122</v>
+        <v>659554</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7509523102868898</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7178389750350245</v>
+        <v>0.7183625707940724</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.78068841126331</v>
+        <v>0.7823875982130053</v>
       </c>
     </row>
     <row r="16">
@@ -1585,19 +1585,19 @@
         <v>2711</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7883</v>
+        <v>7372</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006645422638150203</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001283294687142123</v>
+        <v>0.001289201482609522</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01932124515145571</v>
+        <v>0.01806793102244963</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1606,19 +1606,19 @@
         <v>4757</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1407</v>
+        <v>1938</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12338</v>
+        <v>12214</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01093621320702259</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00323548788772959</v>
+        <v>0.004454477187482433</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02836351080399705</v>
+        <v>0.02807872229650059</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1627,19 +1627,19 @@
         <v>7469</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3305</v>
+        <v>3405</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15911</v>
+        <v>15189</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.008859536721358457</v>
+        <v>0.008859536721358459</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00392106084081602</v>
+        <v>0.00403963483757315</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01887445586231144</v>
+        <v>0.01801726021836704</v>
       </c>
     </row>
     <row r="17">
@@ -1778,19 +1778,19 @@
         <v>145606</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>121577</v>
+        <v>123601</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>172269</v>
+        <v>170584</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2650643877355525</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2213207396344721</v>
+        <v>0.2250055430919703</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.313600668506385</v>
+        <v>0.3105344701888518</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>144</v>
@@ -1799,19 +1799,19 @@
         <v>119919</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>102142</v>
+        <v>99584</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>139170</v>
+        <v>139010</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.240507099984122</v>
+        <v>0.2405070999841221</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2048547538220145</v>
+        <v>0.1997250216695788</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2791185646455661</v>
+        <v>0.2787975782220847</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>262</v>
@@ -1820,19 +1820,19 @@
         <v>265525</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>235357</v>
+        <v>237173</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>296791</v>
+        <v>296157</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2533800164282862</v>
+        <v>0.2533800164282861</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2245915342888182</v>
+        <v>0.2263244370206095</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2832156430886335</v>
+        <v>0.2826107412376269</v>
       </c>
     </row>
     <row r="20">
@@ -1849,19 +1849,19 @@
         <v>400584</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>374037</v>
+        <v>376526</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>425109</v>
+        <v>423964</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7292298236297378</v>
+        <v>0.7292298236297379</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6809032100272183</v>
+        <v>0.685433466794338</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7738744496214252</v>
+        <v>0.7717904117270288</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>520</v>
@@ -1870,19 +1870,19 @@
         <v>374187</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>355120</v>
+        <v>354618</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>392330</v>
+        <v>393842</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7504639073674166</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7122245481471502</v>
+        <v>0.711216668467195</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7868511985055159</v>
+        <v>0.78988404696841</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>906</v>
@@ -1891,19 +1891,19 @@
         <v>774771</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>743519</v>
+        <v>743254</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>805455</v>
+        <v>802432</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7393330126004405</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.709510720375353</v>
+        <v>0.709257511971656</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7686139595108838</v>
+        <v>0.7657287930490966</v>
       </c>
     </row>
     <row r="21">
@@ -1920,19 +1920,19 @@
         <v>3134</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8850</v>
+        <v>9169</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.005705788634709768</v>
+        <v>0.005705788634709767</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001305133342441875</v>
+        <v>0.001284344349143828</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0161115738894861</v>
+        <v>0.01669087094687579</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1941,19 +1941,19 @@
         <v>3800</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1590</v>
+        <v>1473</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8639</v>
+        <v>7850</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.007620469243857318</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.003188228505382994</v>
+        <v>0.002953350288742087</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01732552244771473</v>
+        <v>0.01574400430003851</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -1962,19 +1962,19 @@
         <v>6934</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3166</v>
+        <v>3051</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14024</v>
+        <v>13669</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.006616794744120187</v>
+        <v>0.006616794744120186</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003021535210779801</v>
+        <v>0.002911721183089405</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01338290004732186</v>
+        <v>0.01304419660560199</v>
       </c>
     </row>
     <row r="22">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4194</v>
+        <v>3482</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001408523404604009</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.008410505904167025</v>
+        <v>0.006984220219711792</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -2028,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3451</v>
+        <v>3857</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0006701762271531578</v>
+        <v>0.0006701762271531577</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.003293440356419746</v>
+        <v>0.003680376981550941</v>
       </c>
     </row>
     <row r="23">
@@ -2129,19 +2129,19 @@
         <v>469821</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>429073</v>
+        <v>425743</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>514422</v>
+        <v>512491</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3029272782125532</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2766538113383089</v>
+        <v>0.2745069025146288</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3316844051687643</v>
+        <v>0.3304394192260394</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>414</v>
@@ -2150,19 +2150,19 @@
         <v>344416</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>314587</v>
+        <v>312105</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>378658</v>
+        <v>376058</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2046829228490259</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1869556976214486</v>
+        <v>0.1854804569437068</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2250320210772863</v>
+        <v>0.2234869018178983</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>787</v>
@@ -2171,19 +2171,19 @@
         <v>814238</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>761347</v>
+        <v>768086</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>871127</v>
+        <v>869592</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2518037654113313</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2354470605721894</v>
+        <v>0.2375312030595577</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2693966379715143</v>
+        <v>0.2689219489472257</v>
       </c>
     </row>
     <row r="25">
@@ -2200,19 +2200,19 @@
         <v>1072630</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1027823</v>
+        <v>1030588</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1112870</v>
+        <v>1115555</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6916007960308602</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6627107897692605</v>
+        <v>0.6644930376656664</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7175463845032852</v>
+        <v>0.7192775363535582</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1912</v>
@@ -2221,19 +2221,19 @@
         <v>1320071</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1286964</v>
+        <v>1285046</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1351319</v>
+        <v>1351911</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7845037204891576</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7648287238497846</v>
+        <v>0.7636884928496326</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.803074039100739</v>
+        <v>0.8034257025071472</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2977</v>
@@ -2242,19 +2242,19 @@
         <v>2392701</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2335755</v>
+        <v>2338908</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2447180</v>
+        <v>2440283</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7399447831254913</v>
+        <v>0.7399447831254914</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7223342559282954</v>
+        <v>0.7233092516976087</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7567924826766422</v>
+        <v>0.7546596723840321</v>
       </c>
     </row>
     <row r="26">
@@ -2271,19 +2271,19 @@
         <v>7740</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3629</v>
+        <v>3726</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15758</v>
+        <v>15770</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.004990545897128474</v>
+        <v>0.004990545897128475</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002339917195491995</v>
+        <v>0.002402121470424138</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01016053877275774</v>
+        <v>0.01016799571668618</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>24</v>
@@ -2292,19 +2292,19 @@
         <v>16183</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10544</v>
+        <v>10584</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25647</v>
+        <v>25187</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009617143781324108</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006266184157293152</v>
+        <v>0.006290041723753595</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01524202221496555</v>
+        <v>0.01496851464941183</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>32</v>
@@ -2313,19 +2313,19 @@
         <v>23923</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16580</v>
+        <v>15703</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>33754</v>
+        <v>34118</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007398093234413883</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005127502041366368</v>
+        <v>0.004856172061931006</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0104385315150929</v>
+        <v>0.01055090152006698</v>
       </c>
     </row>
     <row r="27">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3878</v>
+        <v>4177</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.000481379859458144</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.002500596017150712</v>
+        <v>0.002693426894217568</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -2363,19 +2363,19 @@
         <v>2013</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5571</v>
+        <v>5176</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.001196212880492378</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0003306669060518244</v>
+        <v>0.0003326005984518949</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.00331095735466587</v>
+        <v>0.003075965828170658</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4</v>
@@ -2384,19 +2384,19 @@
         <v>2759</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6354</v>
+        <v>6524</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0008533582287634896</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.000230381184064653</v>
+        <v>0.0002301908246598566</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.001965017177423871</v>
+        <v>0.002017697510660962</v>
       </c>
     </row>
     <row r="28">
